--- a/xlsx/电子游戏_intext.xlsx
+++ b/xlsx/电子游戏_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="411">
   <si>
     <t>电子游戏</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>電子媒體</t>
+    <t>电子媒体</t>
   </si>
   <si>
     <t>政策_政策_加州_电子游戏</t>
@@ -35,7 +35,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>遊戲</t>
+    <t>游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E6%9C%BA%E6%B8%B8%E6%88%8F</t>
@@ -47,19 +47,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%8C%E6%A9%9F%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>掌機遊戲</t>
+    <t>掌机游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%A6%96%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>電視遊戲</t>
+    <t>电视游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>電腦遊戲</t>
+    <t>电脑游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%9C%BA%E6%B8%B8%E6%88%8F</t>
@@ -101,15 +101,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%8C%E4%B8%8A%E9%81%8A%E6%88%B2%E6%A9%9F</t>
   </si>
   <si>
-    <t>掌上遊戲機</t>
+    <t>掌上游戏机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電腦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91%E5%A8%B1%E4%B9%90%E4%BE%9B%E5%BA%94%E5%95%86%E5%8D%8F%E4%BC%9A</t>
   </si>
   <si>
@@ -119,37 +116,37 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>軟體</t>
+    <t>软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E7%8F%A0%E6%A9%9F</t>
   </si>
   <si>
-    <t>彈珠機</t>
+    <t>弹珠机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%BE%E5%A8%83%E5%A8%83%E6%A9%9F</t>
   </si>
   <si>
-    <t>夾娃娃機</t>
+    <t>夹娃娃机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%83%E8%A7%92%E5%AD%90%E8%80%81%E8%99%8E%E6%A9%9F</t>
   </si>
   <si>
-    <t>吃角子老虎機</t>
+    <t>吃角子老虎机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%A0%AD%E8%B2%BC</t>
   </si>
   <si>
-    <t>大頭貼</t>
+    <t>大头贴</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>個人電腦</t>
+    <t>个人电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E6%B8%B8%E6%88%8F%E6%9C%BA</t>
@@ -191,55 +188,52 @@
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>手機</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%9E%8B%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>智慧型手機</t>
+    <t>智慧型手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%9D%BF%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>平板電腦</t>
+    <t>平板电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E7%80%8F%E8%A6%BD%E5%99%A8</t>
   </si>
   <si>
-    <t>網路瀏覽器</t>
+    <t>网路浏览器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%9B%E6%A8%82</t>
   </si>
   <si>
-    <t>娛樂</t>
+    <t>娱乐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%B6%E9%AB%94%E7%AE%A1</t>
   </si>
   <si>
-    <t>晶體管</t>
+    <t>晶体管</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E8%A8%88%E7%AE%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>電子計算機</t>
+    <t>电子计算机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%88%E5%9C%96%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>版圖遊戲</t>
+    <t>版图游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96</t>
@@ -257,7 +251,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2%E5%8F%B2</t>
   </si>
   <si>
-    <t>電子遊戲史</t>
+    <t>电子游戏史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%86%AF%C2%B7%E8%AF%BA%E4%BC%8A%E6%9B%BC</t>
@@ -275,13 +269,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E9%9D%88%E6%A9%9F</t>
   </si>
   <si>
-    <t>圖靈機</t>
+    <t>图灵机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%93%E5%A4%95%E6%B3%95%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>賓夕法尼亞大學</t>
+    <t>宾夕法尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ENIAC</t>
@@ -299,13 +293,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BC%A0%E6%A8%99</t>
   </si>
   <si>
-    <t>鼠標</t>
+    <t>鼠标</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%98%B2%E9%AB%98%E7%AD%89%E7%A0%94%E7%A9%B6%E8%A8%88%E5%8A%83%E7%BD%B2</t>
   </si>
   <si>
-    <t>國防高等研究計劃署</t>
+    <t>国防高等研究计划署</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ARPAnet</t>
@@ -317,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E7%89%B9%E7%B6%B2</t>
   </si>
   <si>
-    <t>因特網</t>
+    <t>因特网</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Fran%C3%A7ois_Gernelle</t>
@@ -341,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/FC%E9%81%8A%E6%88%B2%E6%A9%9F</t>
   </si>
   <si>
-    <t>FC遊戲機</t>
+    <t>FC游戏机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%95%E5%AD%97%E6%A3%8B</t>
@@ -353,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E4%BA%BA%E7%B6%B2%E7%90%83</t>
   </si>
   <si>
-    <t>雙人網球</t>
+    <t>双人网球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%88%B0%E7%88%AD_(%E9%81%8A%E6%88%B2)</t>
   </si>
   <si>
-    <t>太空戰爭 (遊戲)</t>
+    <t>太空战争 (游戏)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Atari</t>
@@ -401,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E4%B8%96%E7%B4%80</t>
   </si>
   <si>
-    <t>創世紀</t>
+    <t>创世纪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%87%91%E5%88%9A_(%E6%B8%B8%E6%88%8F)</t>
@@ -413,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%88%A9%E6%B5%A6</t>
   </si>
   <si>
-    <t>飛利浦</t>
+    <t>飞利浦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/IBM</t>
@@ -437,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A1%AF%E7%A4%BA%E5%8D%A1</t>
   </si>
   <si>
-    <t>顯示卡</t>
+    <t>显示卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Game_Boy</t>
@@ -449,19 +443,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%9C%E5%B8%B6%E5%9E%8B%E9%81%8A%E6%88%B2%E6%A9%9F</t>
   </si>
   <si>
-    <t>攜帶型遊戲機</t>
+    <t>携带型游戏机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E4%BB%BB%E5%A4%A9%E5%A0%82</t>
   </si>
   <si>
-    <t>超級任天堂</t>
+    <t>超级任天堂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>街機</t>
+    <t>街机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Capcom</t>
@@ -473,7 +467,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E9%A0%AD%E9%9C%B8%E7%8E%8B</t>
   </si>
   <si>
-    <t>街頭霸王</t>
+    <t>街头霸王</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Pentium</t>
@@ -485,19 +479,19 @@
     <t>https://zh.wikipedia.org/wiki/IBM_PC%E5%85%BC%E5%AE%B9%E6%A9%9F</t>
   </si>
   <si>
-    <t>IBM PC兼容機</t>
+    <t>IBM PC兼容机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E5%8A%8D%E5%A5%87%E4%BF%A0%E5%82%B3</t>
   </si>
   <si>
-    <t>仙劍奇俠傳</t>
+    <t>仙剑奇侠传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%8E%E9%BE%8D%E9%A8%8E%E5%A3%AB%E5%9C%98</t>
   </si>
   <si>
-    <t>炎龍騎士團</t>
+    <t>炎龙骑士团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E5%B0%BC</t>
@@ -533,13 +527,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A6%96%E7%AA%97%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>視窗系統</t>
+    <t>视窗系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E6%93%AC%E5%B8%82%E6%B0%91</t>
   </si>
   <si>
-    <t>模擬市民</t>
+    <t>模拟市民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A0%E5%B0%BD%E7%9A%84%E4%BB%BB%E5%8A%A1</t>
@@ -575,19 +569,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E7%B5%82%E5%B9%BB%E6%83%B3</t>
   </si>
   <si>
-    <t>最終幻想</t>
+    <t>最终幻想</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%87%E8%80%85%E9%AC%A5%E6%83%A1%E9%BE%8D</t>
   </si>
   <si>
-    <t>勇者鬥惡龍</t>
+    <t>勇者斗恶龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A1%E9%9D%88%E5%8F%A4%E5%A0%A1</t>
   </si>
   <si>
-    <t>惡靈古堡</t>
+    <t>恶灵古堡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%95%E6%9C%BA%E6%B8%B8%E6%88%8F</t>
@@ -599,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%9A%E4%B8%8A%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>線上遊戲</t>
+    <t>线上游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Maxis</t>
@@ -611,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%AF%E7%B6%B2</t>
   </si>
   <si>
-    <t>互聯網</t>
+    <t>互联网</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9</t>
@@ -641,25 +635,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%B4%B2</t>
   </si>
   <si>
-    <t>亞洲</t>
+    <t>亚洲</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%BA%B8%E7%BE%A4%E4%BF%A0%E5%82%B3</t>
   </si>
   <si>
-    <t>金庸群俠傳</t>
+    <t>金庸群侠传</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B</t>
   </si>
   <si>
-    <t>韓國</t>
+    <t>韩国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%99%E5%A2%83%E4%BC%A0%E8%AF%B4</t>
@@ -671,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%96%E6%8E%9B</t>
   </si>
   <si>
-    <t>外掛</t>
+    <t>外挂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%94%E5%85%BD%E4%B8%96%E7%95%8C</t>
@@ -695,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%8D%E5%85%89</t>
   </si>
   <si>
-    <t>藍光</t>
+    <t>蓝光</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%91%E9%A1%B5%E6%B8%B8%E6%88%8F</t>
@@ -719,7 +713,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%A9%9F</t>
   </si>
   <si>
-    <t>主機</t>
+    <t>主机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%A9%E5%AE%B6</t>
@@ -743,31 +737,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>網絡遊戲</t>
+    <t>网络游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF%E6%96%B9%E5%A1%8A</t>
   </si>
   <si>
-    <t>俄羅斯方塊</t>
+    <t>俄罗斯方块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A2%A8%E8%89%B2%E5%B9%BB%E6%83%B3</t>
   </si>
   <si>
-    <t>風色幻想</t>
+    <t>风色幻想</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E7%91%AA%E5%88%A9%E6%AD%90</t>
   </si>
   <si>
-    <t>超級瑪利歐</t>
+    <t>超级玛利欧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AD%82%E6%96%97%E7%BE%85</t>
   </si>
   <si>
-    <t>魂斗羅</t>
+    <t>魂斗罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%88%E4%BD%9C</t>
@@ -779,13 +773,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%B0%E9%A2%A8%E9%9B%B2%E7%B3%BB%E5%88%97</t>
   </si>
   <si>
-    <t>戰地風雲系列</t>
+    <t>战地风云系列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%BA%E5%8B%9D%E6%99%82%E5%88%BB</t>
   </si>
   <si>
-    <t>決勝時刻</t>
+    <t>决胜时刻</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E6%81%90%E7%B2%BE%E8%8B%B1</t>
@@ -797,7 +791,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AB%E6%97%A5%E4%B9%8B%E6%88%B0</t>
   </si>
   <si>
-    <t>末日之戰</t>
+    <t>末日之战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%80%E5%9F%9F%E7%BD%91</t>
@@ -827,7 +821,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E8%A7%92%E8%89%B2%E6%89%AE%E6%BC%94%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>電子角色扮演遊戲</t>
+    <t>电子角色扮演游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%92%E9%99%A9%E6%B8%B8%E6%88%8F</t>
@@ -857,7 +851,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%AC%A5%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>格鬥遊戲</t>
+    <t>格斗游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A3%8B%E7%89%8C%E6%B8%B8%E6%88%8F</t>
@@ -869,15 +863,12 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%9E%8B%E5%A4%9A%E4%BA%BA%E7%B7%9A%E4%B8%8A%E8%A7%92%E8%89%B2%E6%89%AE%E6%BC%94%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>大型多人線上角色扮演遊戲</t>
+    <t>大型多人线上角色扮演游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%88%8F</t>
   </si>
   <si>
-    <t>游戏</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA</t>
   </si>
   <si>
@@ -887,9 +878,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91%E6%B8%B8%E6%88%8F</t>
   </si>
   <si>
-    <t>电脑游戏</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91%E7%A1%AC%E4%BB%B6</t>
   </si>
   <si>
@@ -899,45 +887,30 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%92%E8%81%94%E7%BD%91</t>
   </si>
   <si>
-    <t>互联网</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E6%96%97%E6%B8%B8%E6%88%8F</t>
   </si>
   <si>
-    <t>格斗游戏</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E7%B5%84%E5%8C%96</t>
   </si>
   <si>
-    <t>模組化</t>
+    <t>模组化</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%85%E7%99%BD%E6%A9%9F</t>
   </si>
   <si>
-    <t>紅白機</t>
+    <t>红白机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E6%9C%BA</t>
   </si>
   <si>
-    <t>街机</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%A7%86%E6%B8%B8%E6%88%8F</t>
   </si>
   <si>
-    <t>电视游戏</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%94%B5%E8%84%91</t>
   </si>
   <si>
-    <t>个人电脑</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%88%8F%E8%BD%AF%E4%BB%B6</t>
   </si>
   <si>
@@ -947,7 +920,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>電腦軟體</t>
+    <t>电脑软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%BD%B1</t>
@@ -1001,13 +974,10 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%8C%E4%B8%8A%E6%B8%B8%E6%88%8F%E6%9C%BA</t>
   </si>
   <si>
-    <t>掌上游戏机</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%88%8A%E8%B1%A1%E9%9B%BB%E5%AD%90</t>
   </si>
   <si>
-    <t>鈊象電子</t>
+    <t>鈊象电子</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%88%8F%E6%9C%BA%E6%B8%B8%E6%88%8F</t>
@@ -1025,9 +995,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E6%88%B2%E6%A9%9F</t>
   </si>
   <si>
-    <t>遊戲機</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC</t>
   </si>
   <si>
@@ -1037,51 +1004,48 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
   </si>
   <si>
-    <t>中國</t>
+    <t>中国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>網路遊戲</t>
+    <t>网路游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E8%AA%9E</t>
   </si>
   <si>
-    <t>日語</t>
+    <t>日语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>英語</t>
+    <t>英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E6%88%B2%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>遊戲軟體</t>
+    <t>游戏软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%92%8C%E8%A3%BD%E8%8B%B1%E8%AA%9E</t>
   </si>
   <si>
-    <t>和製英語</t>
+    <t>和制英语</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A1%AF%E7%A4%BA%E5%99%A8</t>
   </si>
   <si>
-    <t>顯示器</t>
+    <t>显示器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2</t>
   </si>
   <si>
-    <t>電子遊戲</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A7%E5%88%B6%E5%99%A8</t>
   </si>
   <si>
@@ -1091,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%8C%E4%B8%8A%E5%9E%8B%E9%9B%BB%E7%8E%A9</t>
   </si>
   <si>
-    <t>掌上型電玩</t>
+    <t>掌上型电玩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E7%A2%9F%E7%89%87</t>
@@ -1103,19 +1067,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網路</t>
+    <t>网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%AA%E9%81%94%E8%88%87%E5%B7%A8%E5%83%8F</t>
   </si>
   <si>
-    <t>汪達與巨像</t>
+    <t>汪达与巨像</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%85%E9%81%94%E5%88%A92600</t>
   </si>
   <si>
-    <t>雅達利2600</t>
+    <t>雅达利2600</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%BB%E5%A4%A9%E5%A0%82</t>
@@ -1127,15 +1091,9 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A2%E7%99%BD%E6%9C%BA</t>
   </si>
   <si>
-    <t>红白机</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2%E6%A9%9F</t>
   </si>
   <si>
-    <t>電子遊戲機</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Nintendo_Virtual_Boy</t>
   </si>
   <si>
@@ -1163,7 +1121,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
   </si>
   <si>
-    <t>微軟</t>
+    <t>微软</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Xbox360</t>
@@ -1193,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E9%9B%BB%E6%B0%A3</t>
   </si>
   <si>
-    <t>日本電氣</t>
+    <t>日本电气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E5%BE%B7%E6%A3%AE</t>
@@ -1265,7 +1223,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>電子遊戲列表</t>
+    <t>电子游戏列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%B8%B8%E6%88%8F%E4%B8%9A</t>
@@ -1277,13 +1235,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E5%AF%B5%E7%89%A9%E6%A9%9F</t>
   </si>
   <si>
-    <t>電子寵物機</t>
+    <t>电子宠物机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2066,7 +2024,7 @@
         <v>29</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G15" t="n">
         <v>33</v>
@@ -2092,10 +2050,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -2121,10 +2079,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>11</v>
@@ -2150,10 +2108,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -2179,10 +2137,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -2208,10 +2166,10 @@
         <v>19</v>
       </c>
       <c r="E20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" t="s">
         <v>39</v>
-      </c>
-      <c r="F20" t="s">
-        <v>40</v>
       </c>
       <c r="G20" t="n">
         <v>1</v>
@@ -2237,10 +2195,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>40</v>
+      </c>
+      <c r="F21" t="s">
         <v>41</v>
-      </c>
-      <c r="F21" t="s">
-        <v>42</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -2266,10 +2224,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s">
         <v>43</v>
-      </c>
-      <c r="F22" t="s">
-        <v>44</v>
       </c>
       <c r="G22" t="n">
         <v>4</v>
@@ -2295,10 +2253,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
         <v>45</v>
-      </c>
-      <c r="F23" t="s">
-        <v>46</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -2324,10 +2282,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F24" t="s">
         <v>47</v>
-      </c>
-      <c r="F24" t="s">
-        <v>48</v>
       </c>
       <c r="G24" t="n">
         <v>3</v>
@@ -2353,10 +2311,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
         <v>49</v>
-      </c>
-      <c r="F25" t="s">
-        <v>50</v>
       </c>
       <c r="G25" t="n">
         <v>6</v>
@@ -2382,10 +2340,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
+        <v>50</v>
+      </c>
+      <c r="F26" t="s">
         <v>51</v>
-      </c>
-      <c r="F26" t="s">
-        <v>52</v>
       </c>
       <c r="G26" t="n">
         <v>3</v>
@@ -2440,10 +2398,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" t="s">
-        <v>54</v>
       </c>
       <c r="G28" t="n">
         <v>2</v>
@@ -2469,10 +2427,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
         <v>55</v>
-      </c>
-      <c r="F29" t="s">
-        <v>56</v>
       </c>
       <c r="G29" t="n">
         <v>2</v>
@@ -2527,10 +2485,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F31" t="s">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="G31" t="n">
         <v>7</v>
@@ -2556,10 +2514,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G32" t="n">
         <v>2</v>
@@ -2585,10 +2543,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" t="n">
         <v>2</v>
@@ -2614,10 +2572,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F34" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2643,10 +2601,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F35" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G35" t="n">
         <v>8</v>
@@ -2672,10 +2630,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2701,10 +2659,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -2730,10 +2688,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G38" t="n">
         <v>2</v>
@@ -2759,10 +2717,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2788,10 +2746,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F40" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -2817,10 +2775,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -2846,10 +2804,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2875,10 +2833,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2904,10 +2862,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2933,10 +2891,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2962,10 +2920,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2991,10 +2949,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -3020,10 +2978,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F48" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -3049,10 +3007,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F49" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -3078,10 +3036,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -3107,10 +3065,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F51" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -3136,10 +3094,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F52" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3165,10 +3123,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -3194,10 +3152,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -3223,10 +3181,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G55" t="n">
         <v>2</v>
@@ -3252,10 +3210,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3281,10 +3239,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F57" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G57" t="n">
         <v>4</v>
@@ -3310,10 +3268,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3339,10 +3297,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3368,10 +3326,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3397,10 +3355,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G61" t="n">
         <v>6</v>
@@ -3426,10 +3384,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F62" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3455,10 +3413,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3484,10 +3442,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3513,10 +3471,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F65" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3542,10 +3500,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F66" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3571,10 +3529,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F67" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3600,10 +3558,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F68" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3629,10 +3587,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F69" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G69" t="n">
         <v>2</v>
@@ -3658,10 +3616,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F70" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3687,10 +3645,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3716,10 +3674,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F72" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G72" t="n">
         <v>7</v>
@@ -3745,10 +3703,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3774,10 +3732,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3803,10 +3761,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>3</v>
@@ -3832,10 +3790,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3861,10 +3819,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>13</v>
@@ -3890,10 +3848,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3919,10 +3877,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3948,10 +3906,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3977,10 +3935,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -4006,10 +3964,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -4035,10 +3993,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -4064,10 +4022,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>14</v>
@@ -4093,10 +4051,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -4122,10 +4080,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>14</v>
@@ -4151,10 +4109,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -4180,10 +4138,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4209,10 +4167,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4238,10 +4196,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>3</v>
@@ -4267,10 +4225,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4296,10 +4254,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>2</v>
@@ -4325,10 +4283,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>4</v>
@@ -4354,10 +4312,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>3</v>
@@ -4383,10 +4341,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>7</v>
@@ -4412,10 +4370,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4441,10 +4399,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4470,10 +4428,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4499,10 +4457,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>5</v>
@@ -4528,10 +4486,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>9</v>
@@ -4557,10 +4515,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4586,10 +4544,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4615,10 +4573,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4644,10 +4602,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>3</v>
@@ -4673,10 +4631,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4702,10 +4660,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4731,10 +4689,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -4760,10 +4718,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>5</v>
@@ -4789,10 +4747,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4818,10 +4776,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>2</v>
@@ -4847,10 +4805,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4876,10 +4834,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4905,10 +4863,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4934,10 +4892,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>2</v>
@@ -4963,10 +4921,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4992,10 +4950,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5021,10 +4979,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -5050,10 +5008,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -5079,10 +5037,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5108,10 +5066,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>10</v>
@@ -5137,10 +5095,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>11</v>
@@ -5166,10 +5124,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -5195,10 +5153,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5224,10 +5182,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5253,10 +5211,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5282,10 +5240,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5311,10 +5269,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5340,10 +5298,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5369,10 +5327,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5398,10 +5356,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5427,10 +5385,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5456,10 +5414,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5485,10 +5443,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5514,10 +5472,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5543,10 +5501,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5572,10 +5530,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5601,10 +5559,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5630,10 +5588,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5659,10 +5617,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5688,10 +5646,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5717,10 +5675,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5746,10 +5704,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5775,10 +5733,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5804,10 +5762,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5833,10 +5791,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>1</v>
@@ -5862,10 +5820,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F146" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5891,10 +5849,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>6</v>
       </c>
       <c r="G147" t="n">
         <v>100</v>
@@ -5920,10 +5878,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5949,10 +5907,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>14</v>
       </c>
       <c r="G149" t="n">
         <v>4</v>
@@ -5978,10 +5936,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6007,10 +5965,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c r="G151" t="n">
         <v>2</v>
@@ -6036,10 +5994,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -6065,10 +6023,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F153" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -6094,10 +6052,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F154" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6123,10 +6081,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F155" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6152,10 +6110,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F156" t="s">
-        <v>302</v>
+        <v>146</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -6181,10 +6139,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="F157" t="s">
-        <v>304</v>
+        <v>12</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6239,10 +6197,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>43</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6268,10 +6226,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6297,10 +6255,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6326,10 +6284,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6355,10 +6313,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G163" t="n">
         <v>2</v>
@@ -6384,10 +6342,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G164" t="n">
         <v>7</v>
@@ -6442,10 +6400,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F166" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6471,10 +6429,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F167" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6500,10 +6458,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F168" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6529,10 +6487,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="F169" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6558,10 +6516,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="F170" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6587,10 +6545,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="F171" t="s">
-        <v>328</v>
+        <v>28</v>
       </c>
       <c r="G171" t="n">
         <v>3</v>
@@ -6616,10 +6574,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F172" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6645,10 +6603,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F173" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G173" t="n">
         <v>10</v>
@@ -6674,10 +6632,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F174" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6703,10 +6661,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F175" t="s">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="G175" t="n">
         <v>38</v>
@@ -6732,10 +6690,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>44</v>
+      </c>
+      <c r="F176" t="s">
         <v>45</v>
-      </c>
-      <c r="F176" t="s">
-        <v>46</v>
       </c>
       <c r="G176" t="n">
         <v>7</v>
@@ -6761,10 +6719,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>337</v>
+        <v>326</v>
       </c>
       <c r="F177" t="s">
-        <v>338</v>
+        <v>327</v>
       </c>
       <c r="G177" t="n">
         <v>7</v>
@@ -6790,10 +6748,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="F178" t="s">
-        <v>340</v>
+        <v>329</v>
       </c>
       <c r="G178" t="n">
         <v>4</v>
@@ -6819,10 +6777,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="F179" t="s">
-        <v>342</v>
+        <v>331</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6848,10 +6806,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>343</v>
+        <v>332</v>
       </c>
       <c r="F180" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="G180" t="n">
         <v>3</v>
@@ -6877,10 +6835,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="F181" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="G181" t="n">
         <v>4</v>
@@ -6906,10 +6864,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="F182" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="G182" t="n">
         <v>3</v>
@@ -6935,10 +6893,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="F183" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6964,10 +6922,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="F184" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="G184" t="n">
         <v>4</v>
@@ -6993,10 +6951,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="F185" t="s">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="G185" t="n">
         <v>59</v>
@@ -7022,10 +6980,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="F186" t="s">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -7051,10 +7009,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>357</v>
+        <v>345</v>
       </c>
       <c r="F187" t="s">
-        <v>358</v>
+        <v>346</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -7080,10 +7038,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>359</v>
+        <v>347</v>
       </c>
       <c r="F188" t="s">
-        <v>360</v>
+        <v>348</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -7109,10 +7067,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>361</v>
+        <v>349</v>
       </c>
       <c r="F189" t="s">
-        <v>362</v>
+        <v>350</v>
       </c>
       <c r="G189" t="n">
         <v>7</v>
@@ -7138,10 +7096,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>363</v>
+        <v>351</v>
       </c>
       <c r="F190" t="s">
-        <v>364</v>
+        <v>352</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7167,10 +7125,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>365</v>
+        <v>353</v>
       </c>
       <c r="F191" t="s">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -7196,10 +7154,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>367</v>
+        <v>355</v>
       </c>
       <c r="F192" t="s">
-        <v>368</v>
+        <v>356</v>
       </c>
       <c r="G192" t="n">
         <v>18</v>
@@ -7225,10 +7183,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="F193" t="s">
-        <v>370</v>
+        <v>294</v>
       </c>
       <c r="G193" t="n">
         <v>1</v>
@@ -7254,10 +7212,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="F194" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -7283,10 +7241,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F195" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -7312,10 +7270,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="F196" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7341,10 +7299,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F197" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7370,10 +7328,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F198" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -7399,10 +7357,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="F199" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -7428,10 +7386,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F200" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G200" t="n">
         <v>10</v>
@@ -7457,10 +7415,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F201" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G201" t="n">
         <v>3</v>
@@ -7486,10 +7444,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
+        <v>46</v>
+      </c>
+      <c r="F202" t="s">
         <v>47</v>
-      </c>
-      <c r="F202" t="s">
-        <v>48</v>
       </c>
       <c r="G202" t="n">
         <v>2</v>
@@ -7515,10 +7473,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F203" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -7544,10 +7502,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="F204" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="G204" t="n">
         <v>5</v>
@@ -7573,10 +7531,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="F205" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7602,10 +7560,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F206" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7631,10 +7589,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F207" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -7660,10 +7618,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="F208" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7689,10 +7647,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F209" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7718,10 +7676,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="F210" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7747,10 +7705,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="F211" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="G211" t="n">
         <v>1</v>
@@ -7776,10 +7734,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="F212" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7805,10 +7763,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="F213" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
@@ -7834,10 +7792,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="F214" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -7863,10 +7821,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
       <c r="F215" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -7892,10 +7850,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="F216" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -7921,10 +7879,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F217" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
       <c r="G217" t="n">
         <v>2</v>
@@ -7950,10 +7908,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="F218" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -7979,10 +7937,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="F219" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8008,10 +7966,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="F220" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="G220" t="n">
         <v>4</v>
@@ -8037,10 +7995,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="F221" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -8066,10 +8024,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="F222" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8095,10 +8053,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="F223" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8124,10 +8082,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="F224" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="G224" t="n">
         <v>3</v>
@@ -8153,10 +8111,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F225" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8182,10 +8140,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="F226" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
       <c r="G226" t="n">
         <v>3</v>
@@ -8211,10 +8169,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="F227" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>

--- a/xlsx/电子游戏_intext.xlsx
+++ b/xlsx/电子游戏_intext.xlsx
@@ -29,7 +29,7 @@
     <t>電子媒體</t>
   </si>
   <si>
-    <t>政策_政策_加州_电子游戏</t>
+    <t>体育运动_体育运动_大众媒体_电子游戏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8A%E6%88%B2</t>
